--- a/doc/03_内部設計/03_ファイル構成一覧表_A4.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_A4.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\03_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49539BB5-0189-4D8E-A98B-5445876D5694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8BF4DE-D510-4626-A975-058BC485C259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -753,6 +753,20 @@
     </rPh>
     <rPh sb="53" eb="56">
       <t>ショリヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogoutServlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログアウト処理用。</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1151,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1245,11 +1259,8 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C39" si="0">ROW()-2</f>
+        <f>ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1259,10 +1270,10 @@
         <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="H4" s="4">
         <v>45460</v>
@@ -1276,12 +1287,12 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C5:C40" si="0">ROW()-2</f>
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1291,10 +1302,10 @@
         <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="H5" s="4">
         <v>45460</v>
@@ -1308,9 +1319,9 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -1323,10 +1334,10 @@
         <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="H6" s="4">
         <v>45460</v>
@@ -1342,7 +1353,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -1355,10 +1366,10 @@
         <v>18</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H7" s="4">
         <v>45460</v>
@@ -1373,6 +1384,9 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1381,13 +1395,13 @@
         <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H8" s="4">
         <v>45460</v>
@@ -1413,10 +1427,10 @@
         <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" s="4">
         <v>45460</v>
@@ -1442,10 +1456,10 @@
         <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="4">
         <v>45460</v>
@@ -1471,10 +1485,10 @@
         <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H11" s="4">
         <v>45460</v>
@@ -1500,10 +1514,10 @@
         <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="4">
         <v>45460</v>
@@ -1529,10 +1543,10 @@
         <v>24</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H13" s="4">
         <v>45460</v>
@@ -1558,10 +1572,10 @@
         <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="4">
         <v>45460</v>
@@ -1587,10 +1601,10 @@
         <v>24</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H15" s="4">
         <v>45460</v>
@@ -1616,10 +1630,10 @@
         <v>24</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H16" s="4">
         <v>45460</v>
@@ -1645,10 +1659,10 @@
         <v>24</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H17" s="4">
         <v>45460</v>
@@ -1674,10 +1688,10 @@
         <v>24</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H18" s="4">
         <v>45460</v>
@@ -1700,13 +1714,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H19" s="4">
         <v>45460</v>
@@ -1720,7 +1734,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="3:14" ht="36" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1732,10 +1746,10 @@
         <v>91</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="H20" s="4">
         <v>45460</v>
@@ -1749,7 +1763,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="3:14" ht="55.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1761,10 +1775,10 @@
         <v>91</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H21" s="4">
         <v>45460</v>
@@ -1778,7 +1792,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="3:14" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:14" ht="55.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1790,10 +1804,10 @@
         <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H22" s="4">
         <v>45460</v>
@@ -1807,22 +1821,22 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:14" ht="39" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="H23" s="4">
         <v>45460</v>
@@ -1848,10 +1862,10 @@
         <v>26</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H24" s="4">
         <v>45460</v>
@@ -1877,10 +1891,10 @@
         <v>26</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H25" s="4">
         <v>45460</v>
@@ -1906,10 +1920,10 @@
         <v>26</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H26" s="4">
         <v>45460</v>
@@ -1935,10 +1949,10 @@
         <v>26</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H27" s="4">
         <v>45460</v>
@@ -1958,16 +1972,16 @@
         <v>26</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H28" s="4">
         <v>45460</v>
@@ -1993,10 +2007,10 @@
         <v>33</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H29" s="4">
         <v>45460</v>
@@ -2022,10 +2036,10 @@
         <v>33</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H30" s="4">
         <v>45460</v>
@@ -2051,10 +2065,10 @@
         <v>33</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="4">
         <v>45460</v>
@@ -2080,10 +2094,10 @@
         <v>33</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="4">
         <v>45460</v>
@@ -2109,10 +2123,10 @@
         <v>33</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" s="4">
         <v>45460</v>
@@ -2132,16 +2146,16 @@
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H34" s="4">
         <v>45460</v>
@@ -2167,10 +2181,10 @@
         <v>40</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H35" s="4">
         <v>45460</v>
@@ -2196,10 +2210,10 @@
         <v>40</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H36" s="4">
         <v>45460</v>
@@ -2225,10 +2239,10 @@
         <v>40</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H37" s="4">
         <v>45460</v>
@@ -2254,10 +2268,10 @@
         <v>40</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H38" s="4">
         <v>45460</v>
@@ -2283,10 +2297,10 @@
         <v>40</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H39" s="4">
         <v>45460</v>
@@ -2300,12 +2314,41 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="C40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="4">
+        <v>45460</v>
+      </c>
+      <c r="I40" s="4">
+        <v>45469</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:N39" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N40" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M39" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
-      <formula1>$A$2:$A$7</formula1>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M40" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+      <formula1>$A$2:$A$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2313,18 +2356,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2499,6 +2542,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2511,14 +2562,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/03_内部設計/03_ファイル構成一覧表_A4.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\03_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8BF4DE-D510-4626-A975-058BC485C259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F191F8-507B-47B0-84DB-D9BF54E82786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -767,6 +767,51 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂本</t>
+    <rPh sb="0" eb="2">
+      <t>サカモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加藤</t>
+    <rPh sb="0" eb="2">
+      <t>カトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松野</t>
+    <rPh sb="0" eb="2">
+      <t>マツノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐藤(坂本)</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サカモト</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1167,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1256,7 +1301,9 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C4" s="1">
@@ -1285,7 +1332,9 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -1317,7 +1366,9 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1349,7 +1400,9 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1381,7 +1434,9 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -1413,7 +1468,9 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="N8" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
@@ -1442,7 +1499,9 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="N9" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
@@ -1471,7 +1530,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
@@ -1500,7 +1561,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
@@ -1529,7 +1592,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="N12" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
@@ -1558,7 +1623,9 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
+      <c r="N13" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
@@ -1587,7 +1654,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
+      <c r="N14" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
@@ -1616,7 +1685,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
@@ -1645,7 +1716,9 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
@@ -1674,7 +1747,9 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
@@ -1703,7 +1778,9 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
@@ -1732,7 +1809,9 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
@@ -1761,7 +1840,9 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="21" spans="3:14" ht="36" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
@@ -1790,7 +1871,9 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="N21" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="22" spans="3:14" ht="55.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
@@ -1819,7 +1902,9 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="N22" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="23" spans="3:14" ht="39" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C23" s="1">
@@ -1848,7 +1933,9 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="N23" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C24" s="1">
@@ -1877,7 +1964,9 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="N24" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
@@ -1906,7 +1995,9 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C26" s="1">
@@ -1935,7 +2026,9 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C27" s="1">
@@ -1964,7 +2057,9 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="N27" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C28" s="1">
@@ -1993,7 +2088,9 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="N28" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
@@ -2022,7 +2119,9 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
+      <c r="N29" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
@@ -2051,7 +2150,9 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="N30" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
@@ -2080,7 +2181,9 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
@@ -2109,7 +2212,9 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="N32" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
@@ -2138,7 +2243,9 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="N33" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
@@ -2167,7 +2274,9 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="N34" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
@@ -2196,7 +2305,9 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="N35" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36" s="1">
@@ -2225,7 +2336,9 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="N36" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37" s="1">
@@ -2254,7 +2367,9 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+      <c r="N37" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" s="1">
@@ -2283,7 +2398,9 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+      <c r="N38" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" s="1">
@@ -2312,7 +2429,9 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40" s="1">
@@ -2341,7 +2460,9 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C2:N40" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>

--- a/doc/03_内部設計/03_ファイル構成一覧表_A4.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\03_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F191F8-507B-47B0-84DB-D9BF54E82786}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E1A03A-791B-4587-9C2D-9232CFEC303C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1292,10 +1292,10 @@
         <v>48</v>
       </c>
       <c r="H3" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="I3" s="4">
-        <v>45469</v>
+        <v>45463</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1323,10 +1323,10 @@
         <v>102</v>
       </c>
       <c r="H4" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="I4" s="4">
-        <v>45469</v>
+        <v>45463</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1357,10 +1357,10 @@
         <v>49</v>
       </c>
       <c r="H5" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="I5" s="4">
-        <v>45469</v>
+        <v>45463</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -1391,10 +1391,10 @@
         <v>100</v>
       </c>
       <c r="H6" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="I6" s="4">
-        <v>45469</v>
+        <v>45463</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1425,10 +1425,10 @@
         <v>50</v>
       </c>
       <c r="H7" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="I7" s="4">
-        <v>45469</v>
+        <v>45463</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1459,10 +1459,10 @@
         <v>51</v>
       </c>
       <c r="H8" s="4">
-        <v>45460</v>
+        <v>45461</v>
       </c>
       <c r="I8" s="4">
-        <v>45469</v>
+        <v>45463</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1493,7 +1493,7 @@
         <v>45460</v>
       </c>
       <c r="I9" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -1524,7 +1524,7 @@
         <v>45460</v>
       </c>
       <c r="I10" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
@@ -1555,7 +1555,7 @@
         <v>45460</v>
       </c>
       <c r="I11" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1586,7 +1586,7 @@
         <v>45460</v>
       </c>
       <c r="I12" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1617,7 +1617,7 @@
         <v>45460</v>
       </c>
       <c r="I13" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1648,7 +1648,7 @@
         <v>45460</v>
       </c>
       <c r="I14" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1679,7 +1679,7 @@
         <v>45460</v>
       </c>
       <c r="I15" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
@@ -1710,7 +1710,7 @@
         <v>45460</v>
       </c>
       <c r="I16" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -1741,7 +1741,7 @@
         <v>45460</v>
       </c>
       <c r="I17" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -1772,7 +1772,7 @@
         <v>45460</v>
       </c>
       <c r="I18" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -1803,7 +1803,7 @@
         <v>45460</v>
       </c>
       <c r="I19" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -1834,7 +1834,7 @@
         <v>45460</v>
       </c>
       <c r="I20" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
@@ -1865,7 +1865,7 @@
         <v>45460</v>
       </c>
       <c r="I21" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -1896,7 +1896,7 @@
         <v>45460</v>
       </c>
       <c r="I22" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
@@ -1927,7 +1927,7 @@
         <v>45460</v>
       </c>
       <c r="I23" s="4">
-        <v>45469</v>
+        <v>45460</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -1955,7 +1955,7 @@
         <v>74</v>
       </c>
       <c r="H24" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I24" s="4">
         <v>45469</v>
@@ -1986,7 +1986,7 @@
         <v>75</v>
       </c>
       <c r="H25" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I25" s="4">
         <v>45469</v>
@@ -2017,7 +2017,7 @@
         <v>76</v>
       </c>
       <c r="H26" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I26" s="4">
         <v>45469</v>
@@ -2048,7 +2048,7 @@
         <v>88</v>
       </c>
       <c r="H27" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I27" s="4">
         <v>45469</v>
@@ -2079,7 +2079,7 @@
         <v>77</v>
       </c>
       <c r="H28" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I28" s="4">
         <v>45469</v>
@@ -2110,7 +2110,7 @@
         <v>78</v>
       </c>
       <c r="H29" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I29" s="4">
         <v>45469</v>
@@ -2141,7 +2141,7 @@
         <v>79</v>
       </c>
       <c r="H30" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I30" s="4">
         <v>45469</v>
@@ -2172,7 +2172,7 @@
         <v>80</v>
       </c>
       <c r="H31" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I31" s="4">
         <v>45469</v>
@@ -2203,7 +2203,7 @@
         <v>81</v>
       </c>
       <c r="H32" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I32" s="4">
         <v>45469</v>
@@ -2234,7 +2234,7 @@
         <v>82</v>
       </c>
       <c r="H33" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I33" s="4">
         <v>45469</v>
@@ -2265,7 +2265,7 @@
         <v>83</v>
       </c>
       <c r="H34" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I34" s="4">
         <v>45469</v>
@@ -2296,7 +2296,7 @@
         <v>84</v>
       </c>
       <c r="H35" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I35" s="4">
         <v>45469</v>
@@ -2327,7 +2327,7 @@
         <v>85</v>
       </c>
       <c r="H36" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I36" s="4">
         <v>45469</v>
@@ -2358,7 +2358,7 @@
         <v>86</v>
       </c>
       <c r="H37" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I37" s="4">
         <v>45469</v>
@@ -2389,7 +2389,7 @@
         <v>87</v>
       </c>
       <c r="H38" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I38" s="4">
         <v>45469</v>
@@ -2420,7 +2420,7 @@
         <v>89</v>
       </c>
       <c r="H39" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I39" s="4">
         <v>45469</v>
@@ -2451,7 +2451,7 @@
         <v>90</v>
       </c>
       <c r="H40" s="4">
-        <v>45460</v>
+        <v>45467</v>
       </c>
       <c r="I40" s="4">
         <v>45469</v>
@@ -2477,18 +2477,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2663,14 +2663,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2683,6 +2675,14 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/doc/03_内部設計/03_ファイル構成一覧表_A4.xlsx
+++ b/doc/03_内部設計/03_ファイル構成一覧表_A4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\03_内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E1A03A-791B-4587-9C2D-9232CFEC303C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AEF20D5-395E-4810-8E75-7B7A72A014E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="109">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1212,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1297,10 +1297,16 @@
       <c r="I3" s="4">
         <v>45463</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="J3" s="4">
+        <v>45461</v>
+      </c>
+      <c r="K3" s="4">
+        <v>45463</v>
+      </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N3" s="1" t="s">
         <v>103</v>
       </c>
@@ -1328,10 +1334,16 @@
       <c r="I4" s="4">
         <v>45463</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="J4" s="4">
+        <v>45461</v>
+      </c>
+      <c r="K4" s="4">
+        <v>45463</v>
+      </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N4" s="1" t="s">
         <v>103</v>
       </c>
@@ -1362,10 +1374,16 @@
       <c r="I5" s="4">
         <v>45463</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="J5" s="4">
+        <v>45461</v>
+      </c>
+      <c r="K5" s="4">
+        <v>45463</v>
+      </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N5" s="1" t="s">
         <v>105</v>
       </c>
@@ -1396,10 +1414,16 @@
       <c r="I6" s="4">
         <v>45463</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="J6" s="4">
+        <v>45461</v>
+      </c>
+      <c r="K6" s="4">
+        <v>45463</v>
+      </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N6" s="1" t="s">
         <v>104</v>
       </c>
@@ -1430,10 +1454,16 @@
       <c r="I7" s="4">
         <v>45463</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="4">
+        <v>45461</v>
+      </c>
+      <c r="K7" s="4">
+        <v>45463</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N7" s="1" t="s">
         <v>106</v>
       </c>
@@ -1464,10 +1494,16 @@
       <c r="I8" s="4">
         <v>45463</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="4">
+        <v>45461</v>
+      </c>
+      <c r="K8" s="4">
+        <v>45463</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="M8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N8" s="1" t="s">
         <v>107</v>
       </c>
@@ -1495,10 +1531,16 @@
       <c r="I9" s="4">
         <v>45460</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="J9" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K9" s="4">
+        <v>45460</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N9" s="1" t="s">
         <v>103</v>
       </c>
@@ -1526,10 +1568,16 @@
       <c r="I10" s="4">
         <v>45460</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K10" s="4">
+        <v>45460</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N10" s="1" t="s">
         <v>106</v>
       </c>
@@ -1557,10 +1605,16 @@
       <c r="I11" s="4">
         <v>45460</v>
       </c>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="J11" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45460</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N11" s="1" t="s">
         <v>106</v>
       </c>
@@ -1588,10 +1642,16 @@
       <c r="I12" s="4">
         <v>45460</v>
       </c>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="J12" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K12" s="4">
+        <v>45460</v>
+      </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N12" s="1" t="s">
         <v>105</v>
       </c>
@@ -1619,10 +1679,16 @@
       <c r="I13" s="4">
         <v>45460</v>
       </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="J13" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K13" s="4">
+        <v>45460</v>
+      </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N13" s="1" t="s">
         <v>105</v>
       </c>
@@ -1650,10 +1716,16 @@
       <c r="I14" s="4">
         <v>45460</v>
       </c>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="J14" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K14" s="4">
+        <v>45460</v>
+      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N14" s="1" t="s">
         <v>105</v>
       </c>
@@ -1681,10 +1753,16 @@
       <c r="I15" s="4">
         <v>45460</v>
       </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="J15" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K15" s="4">
+        <v>45460</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N15" s="1" t="s">
         <v>105</v>
       </c>
@@ -1712,10 +1790,16 @@
       <c r="I16" s="4">
         <v>45460</v>
       </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="J16" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K16" s="4">
+        <v>45460</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>105</v>
       </c>
@@ -1743,10 +1827,16 @@
       <c r="I17" s="4">
         <v>45460</v>
       </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="J17" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K17" s="4">
+        <v>45460</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N17" s="1" t="s">
         <v>104</v>
       </c>
@@ -1774,10 +1864,16 @@
       <c r="I18" s="4">
         <v>45460</v>
       </c>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="J18" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K18" s="4">
+        <v>45460</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N18" s="1" t="s">
         <v>107</v>
       </c>
@@ -1805,10 +1901,16 @@
       <c r="I19" s="4">
         <v>45460</v>
       </c>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="J19" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K19" s="4">
+        <v>45460</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N19" s="1" t="s">
         <v>107</v>
       </c>
@@ -1836,10 +1938,16 @@
       <c r="I20" s="4">
         <v>45460</v>
       </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="J20" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K20" s="4">
+        <v>45460</v>
+      </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N20" s="1" t="s">
         <v>104</v>
       </c>
@@ -1867,10 +1975,16 @@
       <c r="I21" s="4">
         <v>45460</v>
       </c>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="J21" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K21" s="4">
+        <v>45460</v>
+      </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>106</v>
       </c>
@@ -1898,10 +2012,16 @@
       <c r="I22" s="4">
         <v>45460</v>
       </c>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
+      <c r="J22" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K22" s="4">
+        <v>45460</v>
+      </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>105</v>
       </c>
@@ -1929,10 +2049,16 @@
       <c r="I23" s="4">
         <v>45460</v>
       </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+      <c r="J23" s="4">
+        <v>45460</v>
+      </c>
+      <c r="K23" s="4">
+        <v>45460</v>
+      </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N23" s="1" t="s">
         <v>107</v>
       </c>
@@ -1960,10 +2086,16 @@
       <c r="I24" s="4">
         <v>45469</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
+      <c r="J24" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K24" s="4">
+        <v>45469</v>
+      </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N24" s="1" t="s">
         <v>103</v>
       </c>
@@ -1991,10 +2123,16 @@
       <c r="I25" s="4">
         <v>45469</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="J25" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K25" s="4">
+        <v>45469</v>
+      </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N25" s="1" t="s">
         <v>105</v>
       </c>
@@ -2022,10 +2160,16 @@
       <c r="I26" s="4">
         <v>45469</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="J26" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K26" s="4">
+        <v>45469</v>
+      </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N26" s="1" t="s">
         <v>104</v>
       </c>
@@ -2053,10 +2197,16 @@
       <c r="I27" s="4">
         <v>45469</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
+      <c r="J27" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K27" s="4">
+        <v>45469</v>
+      </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N27" s="1" t="s">
         <v>106</v>
       </c>
@@ -2084,10 +2234,16 @@
       <c r="I28" s="4">
         <v>45469</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="J28" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K28" s="4">
+        <v>45469</v>
+      </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N28" s="1" t="s">
         <v>107</v>
       </c>
@@ -2115,10 +2271,16 @@
       <c r="I29" s="4">
         <v>45469</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
+      <c r="J29" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K29" s="4">
+        <v>45469</v>
+      </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N29" s="1" t="s">
         <v>107</v>
       </c>
@@ -2146,10 +2308,16 @@
       <c r="I30" s="4">
         <v>45469</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
+      <c r="J30" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K30" s="4">
+        <v>45469</v>
+      </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N30" s="1" t="s">
         <v>103</v>
       </c>
@@ -2177,10 +2345,16 @@
       <c r="I31" s="4">
         <v>45469</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+      <c r="J31" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K31" s="4">
+        <v>45469</v>
+      </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N31" s="1" t="s">
         <v>105</v>
       </c>
@@ -2208,10 +2382,16 @@
       <c r="I32" s="4">
         <v>45469</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
+      <c r="J32" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K32" s="4">
+        <v>45469</v>
+      </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N32" s="1" t="s">
         <v>104</v>
       </c>
@@ -2239,10 +2419,16 @@
       <c r="I33" s="4">
         <v>45469</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
+      <c r="J33" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K33" s="4">
+        <v>45469</v>
+      </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N33" s="1" t="s">
         <v>106</v>
       </c>
@@ -2270,10 +2456,16 @@
       <c r="I34" s="4">
         <v>45469</v>
       </c>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="J34" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K34" s="4">
+        <v>45469</v>
+      </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N34" s="1" t="s">
         <v>107</v>
       </c>
@@ -2301,10 +2493,16 @@
       <c r="I35" s="4">
         <v>45469</v>
       </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
+      <c r="J35" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K35" s="4">
+        <v>45469</v>
+      </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N35" s="1" t="s">
         <v>103</v>
       </c>
@@ -2332,10 +2530,16 @@
       <c r="I36" s="4">
         <v>45469</v>
       </c>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
+      <c r="J36" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K36" s="4">
+        <v>45469</v>
+      </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N36" s="1" t="s">
         <v>103</v>
       </c>
@@ -2363,10 +2567,16 @@
       <c r="I37" s="4">
         <v>45469</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="J37" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K37" s="4">
+        <v>45469</v>
+      </c>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N37" s="1" t="s">
         <v>105</v>
       </c>
@@ -2394,10 +2604,16 @@
       <c r="I38" s="4">
         <v>45469</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="J38" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K38" s="4">
+        <v>45469</v>
+      </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N38" s="1" t="s">
         <v>108</v>
       </c>
@@ -2425,10 +2641,16 @@
       <c r="I39" s="4">
         <v>45469</v>
       </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+      <c r="J39" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K39" s="4">
+        <v>45469</v>
+      </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N39" s="1" t="s">
         <v>106</v>
       </c>
@@ -2456,10 +2678,16 @@
       <c r="I40" s="4">
         <v>45469</v>
       </c>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
+      <c r="J40" s="4">
+        <v>45467</v>
+      </c>
+      <c r="K40" s="4">
+        <v>45469</v>
+      </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="N40" s="1" t="s">
         <v>107</v>
       </c>
@@ -2477,18 +2705,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2663,6 +2891,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2675,14 +2911,6 @@
     <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
     <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
